--- a/7/1/1/4/3/1/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/4/3/1/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t>Serie</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8426,7 +8429,7 @@
         <v>123</v>
       </c>
       <c r="B102">
-        <v>139</v>
+        <v>138.7</v>
       </c>
       <c r="C102">
         <v>139</v>
@@ -8435,7 +8438,7 @@
         <v>131</v>
       </c>
       <c r="E102">
-        <v>121.2</v>
+        <v>121.3</v>
       </c>
       <c r="F102">
         <v>135.4</v>
@@ -8444,61 +8447,141 @@
         <v>129</v>
       </c>
       <c r="H102">
-        <v>178.8</v>
+        <v>178.3</v>
       </c>
       <c r="I102">
-        <v>138.5</v>
+        <v>138.8</v>
       </c>
       <c r="J102">
-        <v>139.4</v>
+        <v>139.9</v>
       </c>
       <c r="K102">
-        <v>138.5</v>
+        <v>138.7</v>
       </c>
       <c r="L102">
-        <v>155.3</v>
+        <v>157.7</v>
       </c>
       <c r="M102">
-        <v>157.3</v>
+        <v>160.1</v>
       </c>
       <c r="N102">
-        <v>118.4</v>
+        <v>121.9</v>
       </c>
       <c r="O102">
-        <v>190.9</v>
+        <v>195</v>
       </c>
       <c r="P102">
-        <v>192.9</v>
+        <v>197.5</v>
       </c>
       <c r="Q102">
-        <v>171.3</v>
+        <v>171.2</v>
       </c>
       <c r="R102">
-        <v>132.2</v>
+        <v>132.7</v>
       </c>
       <c r="S102">
-        <v>137.7</v>
+        <v>135</v>
       </c>
       <c r="T102">
-        <v>125.5</v>
+        <v>125.8</v>
       </c>
       <c r="U102">
-        <v>123.2</v>
+        <v>123.5</v>
       </c>
       <c r="V102">
-        <v>124.7</v>
+        <v>122.9</v>
       </c>
       <c r="W102">
-        <v>91.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="X102">
-        <v>127.9</v>
+        <v>128</v>
       </c>
       <c r="Y102">
-        <v>141.2</v>
+        <v>141.1</v>
       </c>
       <c r="Z102">
-        <v>147.9</v>
+        <v>148.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103">
+        <v>134</v>
+      </c>
+      <c r="C103">
+        <v>131.9</v>
+      </c>
+      <c r="D103">
+        <v>131.1</v>
+      </c>
+      <c r="E103">
+        <v>122.8</v>
+      </c>
+      <c r="F103">
+        <v>135.3</v>
+      </c>
+      <c r="G103">
+        <v>128.7</v>
+      </c>
+      <c r="H103">
+        <v>137.1</v>
+      </c>
+      <c r="I103">
+        <v>140.9</v>
+      </c>
+      <c r="J103">
+        <v>142.8</v>
+      </c>
+      <c r="K103">
+        <v>139.1</v>
+      </c>
+      <c r="L103">
+        <v>165.6</v>
+      </c>
+      <c r="M103">
+        <v>169.4</v>
+      </c>
+      <c r="N103">
+        <v>131.4</v>
+      </c>
+      <c r="O103">
+        <v>197.3</v>
+      </c>
+      <c r="P103">
+        <v>199.2</v>
+      </c>
+      <c r="Q103">
+        <v>180.9</v>
+      </c>
+      <c r="R103">
+        <v>138.2</v>
+      </c>
+      <c r="S103">
+        <v>126.9</v>
+      </c>
+      <c r="T103">
+        <v>127.3</v>
+      </c>
+      <c r="U103">
+        <v>125.1</v>
+      </c>
+      <c r="V103">
+        <v>117.7</v>
+      </c>
+      <c r="W103">
+        <v>101.1</v>
+      </c>
+      <c r="X103">
+        <v>129</v>
+      </c>
+      <c r="Y103">
+        <v>140.1</v>
+      </c>
+      <c r="Z103">
+        <v>144.7</v>
       </c>
     </row>
   </sheetData>
